--- a/runs/run293/NotionalETEOutput293.xlsx
+++ b/runs/run293/NotionalETEOutput293.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER3_State_Update</t>
+    <t>Missile_HELLMASKER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3_124.MISSILE_BRAVER3_124</t>
+    <t>MISSILE_HELLMASKER3_62.MISSILE_HELLMASKER3_62</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3</t>
+    <t>MISSILE_HELLMASKER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1485.054101537942</v>
+        <v>-1549.302260259866</v>
       </c>
       <c r="J2">
-        <v>2097.991438352294</v>
+        <v>1906.026444295889</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1503.958897675568</v>
+        <v>-1478.428572226771</v>
       </c>
       <c r="J3">
-        <v>1868.505166059413</v>
+        <v>1937.45030396812</v>
       </c>
       <c r="K3">
-        <v>297.3326540797403</v>
+        <v>314.8797555658243</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1447.393591645528</v>
+        <v>-1429.806751803987</v>
       </c>
       <c r="J4">
-        <v>1916.199954783745</v>
+        <v>1946.780825281414</v>
       </c>
       <c r="K4">
-        <v>563.245431824354</v>
+        <v>621.4937331731902</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1457.74436307623</v>
+        <v>-1450.543616459342</v>
       </c>
       <c r="J5">
-        <v>1800.099019492716</v>
+        <v>1817.662788936685</v>
       </c>
       <c r="K5">
-        <v>832.4280489386091</v>
+        <v>828.6404869417182</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1353.414951698616</v>
+        <v>-1350.065433459842</v>
       </c>
       <c r="J6">
-        <v>1831.154637331264</v>
+        <v>1757.948672620191</v>
       </c>
       <c r="K6">
-        <v>1136.365925167211</v>
+        <v>1163.431377323668</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1376.373626596866</v>
+        <v>-1309.698635549968</v>
       </c>
       <c r="J7">
-        <v>1746.614770258997</v>
+        <v>1700.231559041701</v>
       </c>
       <c r="K7">
-        <v>1331.41167189181</v>
+        <v>1329.688524999575</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1327.96779670387</v>
+        <v>-1284.606099940044</v>
       </c>
       <c r="J8">
-        <v>1645.913824052965</v>
+        <v>1726.045715867527</v>
       </c>
       <c r="K8">
-        <v>1581.061965734426</v>
+        <v>1622.449840547858</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.2727534827122</v>
+        <v>-100.1566488362986</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1335.932221900097</v>
+        <v>-1295.023143707402</v>
       </c>
       <c r="J9">
-        <v>1630.919563236396</v>
+        <v>1596.576004132701</v>
       </c>
       <c r="K9">
-        <v>1745.761644895692</v>
+        <v>1811.044263847749</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>206.9579163607424</v>
+        <v>207.9066643360138</v>
       </c>
       <c r="G10">
-        <v>-87.19294319632822</v>
+        <v>-81.21182837055031</v>
       </c>
       <c r="H10">
-        <v>827.8798087608591</v>
+        <v>840.0422065761586</v>
       </c>
       <c r="I10">
-        <v>-1182.912732886382</v>
+        <v>-1208.856384087339</v>
       </c>
       <c r="J10">
-        <v>1542.924204123202</v>
+        <v>1642.309660135435</v>
       </c>
       <c r="K10">
-        <v>2052.589482001544</v>
+        <v>1946.376420310595</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>174.3776165857564</v>
+        <v>174.5981009479663</v>
       </c>
       <c r="G11">
-        <v>-67.83894624186118</v>
+        <v>-64.83182505943071</v>
       </c>
       <c r="H11">
-        <v>1069.243119184591</v>
+        <v>1012.905413072541</v>
       </c>
       <c r="I11">
-        <v>-1239.631500245533</v>
+        <v>-1259.977461853828</v>
       </c>
       <c r="J11">
-        <v>1634.951843258345</v>
+        <v>1634.987977020088</v>
       </c>
       <c r="K11">
-        <v>2268.287974395123</v>
+        <v>2121.399527354087</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.9254680883245</v>
+        <v>142.126506913688</v>
       </c>
       <c r="G12">
-        <v>-49.45722135381343</v>
+        <v>-51.81948081735369</v>
       </c>
       <c r="H12">
-        <v>1171.313210875794</v>
+        <v>1129.328788692512</v>
       </c>
       <c r="I12">
-        <v>-1157.941560733051</v>
+        <v>-1132.129222123984</v>
       </c>
       <c r="J12">
-        <v>1441.825239856414</v>
+        <v>1467.786394052596</v>
       </c>
       <c r="K12">
-        <v>2348.807029888265</v>
+        <v>2401.448737244099</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.2033615282789</v>
+        <v>118.9641008590727</v>
       </c>
       <c r="G13">
-        <v>-32.62310885337249</v>
+        <v>-33.4318035943524</v>
       </c>
       <c r="H13">
-        <v>1241.29369124027</v>
+        <v>1238.479846477403</v>
       </c>
       <c r="I13">
-        <v>-1098.873565669554</v>
+        <v>-1078.246763348714</v>
       </c>
       <c r="J13">
-        <v>1484.903957810126</v>
+        <v>1432.354200289112</v>
       </c>
       <c r="K13">
-        <v>2588.561389463487</v>
+        <v>2470.538040367902</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.3911990272347</v>
+        <v>110.784731778274</v>
       </c>
       <c r="G14">
-        <v>-17.1421066983252</v>
+        <v>-17.06668931687278</v>
       </c>
       <c r="H14">
-        <v>1289.731938875394</v>
+        <v>1384.995206086028</v>
       </c>
       <c r="I14">
-        <v>-1128.746062461976</v>
+        <v>-1046.811687487915</v>
       </c>
       <c r="J14">
-        <v>1398.020213011192</v>
+        <v>1398.274914071697</v>
       </c>
       <c r="K14">
-        <v>2663.480173496307</v>
+        <v>2636.447715534222</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.99159776038307</v>
+        <v>100.536947645576</v>
       </c>
       <c r="G15">
-        <v>-0.9516341261903833</v>
+        <v>-0.9332893853570304</v>
       </c>
       <c r="H15">
-        <v>1421.198688080242</v>
+        <v>1429.06465180435</v>
       </c>
       <c r="I15">
-        <v>-1054.835072444791</v>
+        <v>-1071.424617901729</v>
       </c>
       <c r="J15">
-        <v>1334.62739219896</v>
+        <v>1420.965572695949</v>
       </c>
       <c r="K15">
-        <v>2689.786060705244</v>
+        <v>2750.532347715571</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.11106789272181</v>
+        <v>89.41857820129556</v>
       </c>
       <c r="G16">
-        <v>16.03655792485483</v>
+        <v>15.85561094235795</v>
       </c>
       <c r="H16">
-        <v>1454.52881737022</v>
+        <v>1367.147582065849</v>
       </c>
       <c r="I16">
-        <v>-1059.56837958145</v>
+        <v>-1041.972395611333</v>
       </c>
       <c r="J16">
-        <v>1319.541897986096</v>
+        <v>1305.62239033723</v>
       </c>
       <c r="K16">
-        <v>3014.966652871828</v>
+        <v>2760.581648189799</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.54390988376117</v>
+        <v>87.79296134279245</v>
       </c>
       <c r="G17">
-        <v>31.7311812798256</v>
+        <v>31.14282067039661</v>
       </c>
       <c r="H17">
-        <v>1456.478582132972</v>
+        <v>1527.918474715666</v>
       </c>
       <c r="I17">
-        <v>-928.527234813644</v>
+        <v>-955.4838436567971</v>
       </c>
       <c r="J17">
-        <v>1267.600320741034</v>
+        <v>1289.76658185867</v>
       </c>
       <c r="K17">
-        <v>3020.933862620996</v>
+        <v>3008.668603246279</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.2064753377667</v>
+        <v>83.89905372396146</v>
       </c>
       <c r="G18">
-        <v>49.4095633022085</v>
+        <v>47.73043107634619</v>
       </c>
       <c r="H18">
-        <v>1512.678468220421</v>
+        <v>1475.589821707705</v>
       </c>
       <c r="I18">
-        <v>-970.2470630789742</v>
+        <v>-884.6259556796231</v>
       </c>
       <c r="J18">
-        <v>1226.606454240536</v>
+        <v>1168.200878329121</v>
       </c>
       <c r="K18">
-        <v>3191.898523546935</v>
+        <v>2956.035695571972</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>81.46391111773141</v>
+        <v>81.52869959618599</v>
       </c>
       <c r="G19">
-        <v>65.64049004508718</v>
+        <v>63.18314003758314</v>
       </c>
       <c r="H19">
-        <v>1591.732199960124</v>
+        <v>1535.01276508309</v>
       </c>
       <c r="I19">
-        <v>-852.556017510936</v>
+        <v>-913.8616396245391</v>
       </c>
       <c r="J19">
-        <v>1164.182340913584</v>
+        <v>1158.109550561125</v>
       </c>
       <c r="K19">
-        <v>3052.324639039751</v>
+        <v>3070.461872334754</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.83292447615068</v>
+        <v>76.57317781355898</v>
       </c>
       <c r="G20">
-        <v>81.20517670456283</v>
+        <v>85.31822895647119</v>
       </c>
       <c r="H20">
-        <v>1610.876491892037</v>
+        <v>1515.968813096855</v>
       </c>
       <c r="I20">
-        <v>-830.2405472261086</v>
+        <v>-869.2268372539833</v>
       </c>
       <c r="J20">
-        <v>1109.617433222413</v>
+        <v>1084.476532986328</v>
       </c>
       <c r="K20">
-        <v>3150.468217629071</v>
+        <v>3292.37591974353</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.27266703459041</v>
+        <v>67.98302869245292</v>
       </c>
       <c r="G21">
-        <v>94.82616284640534</v>
+        <v>96.21487217188802</v>
       </c>
       <c r="H21">
-        <v>1560.582643527802</v>
+        <v>1525.153835197576</v>
       </c>
       <c r="I21">
-        <v>-772.2531087765844</v>
+        <v>-778.7177795968241</v>
       </c>
       <c r="J21">
-        <v>1065.492715607053</v>
+        <v>1105.651528262462</v>
       </c>
       <c r="K21">
-        <v>3241.435384904346</v>
+        <v>3182.696344455193</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.64749408116855</v>
+        <v>65.5883412521833</v>
       </c>
       <c r="G22">
-        <v>118.212376521506</v>
+        <v>114.4563821489063</v>
       </c>
       <c r="H22">
-        <v>1669.618380816464</v>
+        <v>1550.084340972267</v>
       </c>
       <c r="I22">
-        <v>-782.9897129320584</v>
+        <v>-763.9897329137232</v>
       </c>
       <c r="J22">
-        <v>993.8373798303686</v>
+        <v>1077.226140226563</v>
       </c>
       <c r="K22">
-        <v>3355.258810349442</v>
+        <v>3300.005371543657</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.16827540571011</v>
+        <v>67.31141008044683</v>
       </c>
       <c r="G23">
-        <v>137.4907122278591</v>
+        <v>137.1559771414095</v>
       </c>
       <c r="H23">
-        <v>1682.854963659739</v>
+        <v>1681.958545993776</v>
       </c>
       <c r="I23">
-        <v>-721.3777647670884</v>
+        <v>-681.0356679926734</v>
       </c>
       <c r="J23">
-        <v>951.4136530086923</v>
+        <v>929.6094771252573</v>
       </c>
       <c r="K23">
-        <v>3093.039536281343</v>
+        <v>3049.420770190619</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.38977459392585</v>
+        <v>63.81041087368106</v>
       </c>
       <c r="G24">
-        <v>150.8025751114006</v>
+        <v>143.2761418199037</v>
       </c>
       <c r="H24">
-        <v>1574.116588637657</v>
+        <v>1703.975470606853</v>
       </c>
       <c r="I24">
-        <v>-679.5122997934292</v>
+        <v>-630.6238451710461</v>
       </c>
       <c r="J24">
-        <v>912.735465349485</v>
+        <v>967.5539771597972</v>
       </c>
       <c r="K24">
-        <v>3043.764148527997</v>
+        <v>3253.081216214867</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.28023326969088</v>
+        <v>63.66073094414979</v>
       </c>
       <c r="G25">
-        <v>171.3759853984405</v>
+        <v>170.0974748874544</v>
       </c>
       <c r="H25">
-        <v>1610.273616437504</v>
+        <v>1664.513303981578</v>
       </c>
       <c r="I25">
-        <v>-587.8067679275101</v>
+        <v>-612.8333280787883</v>
       </c>
       <c r="J25">
-        <v>917.012964431615</v>
+        <v>910.3787092120633</v>
       </c>
       <c r="K25">
-        <v>3226.770371308389</v>
+        <v>3008.452014707247</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.67325070826386</v>
+        <v>60.93945381400253</v>
       </c>
       <c r="G26">
-        <v>182.3259957815654</v>
+        <v>184.1445542727295</v>
       </c>
       <c r="H26">
-        <v>1675.338213270765</v>
+        <v>1693.466231233402</v>
       </c>
       <c r="I26">
-        <v>-565.2128583228804</v>
+        <v>-541.2760174630689</v>
       </c>
       <c r="J26">
-        <v>866.6741746545808</v>
+        <v>850.9225777461156</v>
       </c>
       <c r="K26">
-        <v>3132.991937987038</v>
+        <v>3167.200025687779</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.74228068005299</v>
+        <v>55.87017100005692</v>
       </c>
       <c r="G27">
-        <v>191.1718123629385</v>
+        <v>203.9057624626076</v>
       </c>
       <c r="H27">
-        <v>1784.073316590336</v>
+        <v>1681.783551959581</v>
       </c>
       <c r="I27">
-        <v>-490.6354776640567</v>
+        <v>-469.9279859885139</v>
       </c>
       <c r="J27">
-        <v>791.0850841682233</v>
+        <v>798.3098184267917</v>
       </c>
       <c r="K27">
-        <v>2956.304104565428</v>
+        <v>3110.548439094599</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.58133406033594</v>
+        <v>55.14285222320617</v>
       </c>
       <c r="G28">
-        <v>222.4347878421862</v>
+        <v>222.7224553999264</v>
       </c>
       <c r="H28">
-        <v>1792.854038326523</v>
+        <v>1687.449563202895</v>
       </c>
       <c r="I28">
-        <v>-427.0220601925548</v>
+        <v>-443.912948311458</v>
       </c>
       <c r="J28">
-        <v>750.5335515404714</v>
+        <v>744.4230033941426</v>
       </c>
       <c r="K28">
-        <v>3032.79372226224</v>
+        <v>2999.454324451679</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.52709321822724</v>
+        <v>54.06157866847563</v>
       </c>
       <c r="G29">
-        <v>234.6440691727963</v>
+        <v>226.2997037861164</v>
       </c>
       <c r="H29">
-        <v>1743.806999003391</v>
+        <v>1737.882725483704</v>
       </c>
       <c r="I29">
-        <v>-379.1900598896968</v>
+        <v>-375.0750870522709</v>
       </c>
       <c r="J29">
-        <v>661.1061330928266</v>
+        <v>716.135331026102</v>
       </c>
       <c r="K29">
-        <v>2893.986329601163</v>
+        <v>3028.790737112222</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.66868403845589</v>
+        <v>51.13559188028898</v>
       </c>
       <c r="G30">
-        <v>252.2596102488621</v>
+        <v>258.7650847400014</v>
       </c>
       <c r="H30">
-        <v>1694.269684210547</v>
+        <v>1798.379072326466</v>
       </c>
       <c r="I30">
-        <v>-336.7674379304268</v>
+        <v>-342.3410366048377</v>
       </c>
       <c r="J30">
-        <v>647.1912540566799</v>
+        <v>627.0955093654466</v>
       </c>
       <c r="K30">
-        <v>2902.054845170036</v>
+        <v>2891.665317160364</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.88961618130255</v>
+        <v>51.67974993224149</v>
       </c>
       <c r="G31">
-        <v>251.4385190830886</v>
+        <v>261.9858134514189</v>
       </c>
       <c r="H31">
-        <v>1854.948986607384</v>
+        <v>1809.635543774114</v>
       </c>
       <c r="I31">
-        <v>-265.1578222711204</v>
+        <v>-256.10128391144</v>
       </c>
       <c r="J31">
-        <v>580.6029189241134</v>
+        <v>567.0864591842716</v>
       </c>
       <c r="K31">
-        <v>2730.011256633456</v>
+        <v>2659.658141950688</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.7666487594032</v>
+        <v>49.38267479177086</v>
       </c>
       <c r="G32">
-        <v>275.0726603617754</v>
+        <v>290.301656913775</v>
       </c>
       <c r="H32">
-        <v>1774.945512461782</v>
+        <v>1775.080438249978</v>
       </c>
       <c r="I32">
-        <v>-198.0949036039984</v>
+        <v>-200.1611832372511</v>
       </c>
       <c r="J32">
-        <v>552.3171114203368</v>
+        <v>543.5111988326602</v>
       </c>
       <c r="K32">
-        <v>2522.805188171742</v>
+        <v>2402.348180894783</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.55330217817791</v>
+        <v>49.60990994404234</v>
       </c>
       <c r="G33">
-        <v>297.70575877446</v>
+        <v>285.8241115129121</v>
       </c>
       <c r="H33">
-        <v>1798.350607643462</v>
+        <v>1731.54620179999</v>
       </c>
       <c r="I33">
-        <v>-146.419308573228</v>
+        <v>-146.1467931676301</v>
       </c>
       <c r="J33">
-        <v>491.4427940556498</v>
+        <v>484.07365730218</v>
       </c>
       <c r="K33">
-        <v>2358.439453253396</v>
+        <v>2448.481938666938</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.99395182374567</v>
+        <v>50.06223307933151</v>
       </c>
       <c r="G34">
-        <v>321.971333318416</v>
+        <v>324.16868944051</v>
       </c>
       <c r="H34">
-        <v>1777.372204633105</v>
+        <v>1743.857062721288</v>
       </c>
       <c r="I34">
-        <v>-86.21226191679047</v>
+        <v>-85.36288562592659</v>
       </c>
       <c r="J34">
-        <v>432.758027269122</v>
+        <v>430.0398183770652</v>
       </c>
       <c r="K34">
-        <v>2188.121301907947</v>
+        <v>2241.237825651918</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.04157264059663</v>
+        <v>48.91735792855361</v>
       </c>
       <c r="G35">
-        <v>334.6581200384829</v>
+        <v>333.1714583723817</v>
       </c>
       <c r="H35">
-        <v>1780.455758522757</v>
+        <v>1868.022534791518</v>
       </c>
       <c r="I35">
-        <v>-19.63279541254024</v>
+        <v>-18.00395714729157</v>
       </c>
       <c r="J35">
-        <v>396.6378909994882</v>
+        <v>388.3615278585742</v>
       </c>
       <c r="K35">
-        <v>2041.163158907406</v>
+        <v>2013.035401608688</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.88377060113678</v>
+        <v>45.25802916874588</v>
       </c>
       <c r="G36">
-        <v>349.4744276900757</v>
+        <v>331.7961961202781</v>
       </c>
       <c r="H36">
-        <v>1744.954377847107</v>
+        <v>1834.968714573827</v>
       </c>
       <c r="I36">
-        <v>46.71280764990603</v>
+        <v>48.59630813484443</v>
       </c>
       <c r="J36">
-        <v>356.6680760190456</v>
+        <v>332.5256991190906</v>
       </c>
       <c r="K36">
-        <v>1747.481355996215</v>
+        <v>1792.593607838684</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.82380846654814</v>
+        <v>45.60982121313463</v>
       </c>
       <c r="G37">
-        <v>349.0874082961481</v>
+        <v>376.6329086028991</v>
       </c>
       <c r="H37">
-        <v>1793.065040249473</v>
+        <v>1750.359231254377</v>
       </c>
       <c r="I37">
-        <v>114.773745347937</v>
+        <v>119.615626649089</v>
       </c>
       <c r="J37">
-        <v>291.4876698727533</v>
+        <v>287.8646390749326</v>
       </c>
       <c r="K37">
-        <v>1666.722936883549</v>
+        <v>1667.493904861367</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.83423439581524</v>
+        <v>46.51987456612525</v>
       </c>
       <c r="G38">
-        <v>392.122482131438</v>
+        <v>371.6023858541188</v>
       </c>
       <c r="H38">
-        <v>1911.227514393893</v>
+        <v>1937.914791309209</v>
       </c>
       <c r="I38">
-        <v>177.221064181756</v>
+        <v>190.1097311788119</v>
       </c>
       <c r="J38">
-        <v>239.6746652226786</v>
+        <v>252.0768791512793</v>
       </c>
       <c r="K38">
-        <v>1398.47543749916</v>
+        <v>1366.287643350745</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.33165484781816</v>
+        <v>43.72913193077827</v>
       </c>
       <c r="G39">
-        <v>389.2957433924154</v>
+        <v>381.9433787568773</v>
       </c>
       <c r="H39">
-        <v>1812.596220664722</v>
+        <v>1772.224876213436</v>
       </c>
       <c r="I39">
-        <v>267.8880529770453</v>
+        <v>264.7655399585423</v>
       </c>
       <c r="J39">
-        <v>201.2010377921644</v>
+        <v>208.54122704955</v>
       </c>
       <c r="K39">
-        <v>1207.904816491816</v>
+        <v>1202.226330813002</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.13424286221186</v>
+        <v>42.60594596479841</v>
       </c>
       <c r="G40">
-        <v>418.7271539397033</v>
+        <v>408.5949444722348</v>
       </c>
       <c r="H40">
-        <v>1931.710818597906</v>
+        <v>1873.57924828189</v>
       </c>
       <c r="I40">
-        <v>327.2840998026036</v>
+        <v>335.2807642301299</v>
       </c>
       <c r="J40">
-        <v>151.1532416625917</v>
+        <v>155.2023425399581</v>
       </c>
       <c r="K40">
-        <v>924.5628477927331</v>
+        <v>928.3896021175412</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.78687635529477</v>
+        <v>43.64987848968812</v>
       </c>
       <c r="G41">
-        <v>429.8185352430548</v>
+        <v>447.5586619244214</v>
       </c>
       <c r="H41">
-        <v>1804.631180696394</v>
+        <v>1935.435527113631</v>
       </c>
       <c r="I41">
-        <v>394.4191401185914</v>
+        <v>392.3316409022229</v>
       </c>
       <c r="J41">
-        <v>107.1213537218183</v>
+        <v>100.1948216132599</v>
       </c>
       <c r="K41">
-        <v>649.0355870146442</v>
+        <v>602.6476123408275</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.06941911929776</v>
+        <v>44.20052783212292</v>
       </c>
       <c r="G42">
-        <v>429.8617250272776</v>
+        <v>458.6165192181588</v>
       </c>
       <c r="H42">
-        <v>1895.00995109733</v>
+        <v>1948.411342398067</v>
       </c>
       <c r="I42">
-        <v>464.2049636497221</v>
+        <v>458.2096717792932</v>
       </c>
       <c r="J42">
-        <v>54.59481318332803</v>
+        <v>55.23373101540489</v>
       </c>
       <c r="K42">
-        <v>330.4738162424963</v>
+        <v>321.6664352772777</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.29663569618319</v>
+        <v>43.43606795610951</v>
       </c>
       <c r="G43">
-        <v>482.0909941270457</v>
+        <v>474.9369998877179</v>
       </c>
       <c r="H43">
-        <v>1875.369239322057</v>
+        <v>1884.943090223565</v>
       </c>
       <c r="I43">
-        <v>581.9187146756532</v>
+        <v>541.4229471896837</v>
       </c>
       <c r="J43">
-        <v>5.476301055009235</v>
+        <v>5.285382781373184</v>
       </c>
       <c r="K43">
-        <v>35.21573576974018</v>
+        <v>34.04905714030247</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.0784488961265</v>
+        <v>39.54036139869321</v>
       </c>
       <c r="G44">
-        <v>466.3295041551011</v>
+        <v>489.1176660241309</v>
       </c>
       <c r="H44">
-        <v>1849.385642814851</v>
+        <v>1897.15113621512</v>
       </c>
       <c r="I44">
-        <v>641.7972894924017</v>
+        <v>645.1703326985113</v>
       </c>
       <c r="J44">
-        <v>-41.98117331000446</v>
+        <v>-44.31331279879338</v>
       </c>
       <c r="K44">
-        <v>-291.337720345975</v>
+        <v>-287.202962277336</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.51071771760536</v>
+        <v>39.61979152086816</v>
       </c>
       <c r="G45">
-        <v>505.5425704377333</v>
+        <v>501.3458655792778</v>
       </c>
       <c r="H45">
-        <v>1947.602142882599</v>
+        <v>1967.312480570217</v>
       </c>
       <c r="I45">
-        <v>695.8719419739409</v>
+        <v>730.9610908663035</v>
       </c>
       <c r="J45">
-        <v>-89.18672071340059</v>
+        <v>-90.43043579866024</v>
       </c>
       <c r="K45">
-        <v>-596.7215967802134</v>
+        <v>-634.3767947727529</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.76765764167566</v>
+        <v>39.73064211459656</v>
       </c>
       <c r="G46">
-        <v>487.2623695356991</v>
+        <v>519.7868786940882</v>
       </c>
       <c r="H46">
-        <v>1861.961781651711</v>
+        <v>1999.179718746651</v>
       </c>
       <c r="I46">
-        <v>805.2815724180276</v>
+        <v>835.5573223147278</v>
       </c>
       <c r="J46">
-        <v>-138.9452624866163</v>
+        <v>-136.8894313397974</v>
       </c>
       <c r="K46">
-        <v>-934.499192778486</v>
+        <v>-942.9817310228373</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.24355752425416</v>
+        <v>40.42694886881327</v>
       </c>
       <c r="G47">
-        <v>539.2409067378151</v>
+        <v>525.8856794072176</v>
       </c>
       <c r="H47">
-        <v>1880.893441449335</v>
+        <v>1883.834258721982</v>
       </c>
       <c r="I47">
-        <v>847.9835900289888</v>
+        <v>848.8843376140504</v>
       </c>
       <c r="J47">
-        <v>-185.7782887071317</v>
+        <v>-181.7861747642625</v>
       </c>
       <c r="K47">
-        <v>-1337.944370827477</v>
+        <v>-1344.546358235836</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.36344701319056</v>
+        <v>39.77438885970061</v>
       </c>
       <c r="G48">
-        <v>534.5873053663991</v>
+        <v>550.0063473819515</v>
       </c>
       <c r="H48">
-        <v>1911.356753434282</v>
+        <v>1961.95900885541</v>
       </c>
       <c r="I48">
-        <v>984.6290223054175</v>
+        <v>995.6121323005832</v>
       </c>
       <c r="J48">
-        <v>-230.527197433984</v>
+        <v>-245.5954038106958</v>
       </c>
       <c r="K48">
-        <v>-1653.092319580498</v>
+        <v>-1641.505223136625</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.38755267937316</v>
+        <v>37.52904661878706</v>
       </c>
       <c r="G49">
-        <v>583.5394461030606</v>
+        <v>555.7120282047571</v>
       </c>
       <c r="H49">
-        <v>2035.261469657832</v>
+        <v>1962.201626629781</v>
       </c>
       <c r="I49">
-        <v>1028.186013513009</v>
+        <v>1027.823966707082</v>
       </c>
       <c r="J49">
-        <v>-299.4612176257637</v>
+        <v>-273.7304886608413</v>
       </c>
       <c r="K49">
-        <v>-2076.795948607755</v>
+        <v>-2188.844056285066</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.71255373830662</v>
+        <v>39.46184495683429</v>
       </c>
       <c r="G50">
-        <v>570.6793460321404</v>
+        <v>587.2604353830043</v>
       </c>
       <c r="H50">
-        <v>1875.847189436649</v>
+        <v>1867.156477694814</v>
       </c>
       <c r="I50">
-        <v>1178.558738881378</v>
+        <v>1154.289031407765</v>
       </c>
       <c r="J50">
-        <v>-351.5351666429053</v>
+        <v>-347.4738443238142</v>
       </c>
       <c r="K50">
-        <v>-2445.59439939631</v>
+        <v>-2417.469504635448</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.29989168414193</v>
+        <v>38.70194441568724</v>
       </c>
       <c r="G51">
-        <v>606.209014623487</v>
+        <v>576.3248470583492</v>
       </c>
       <c r="H51">
-        <v>1952.149134587069</v>
+        <v>1997.912160039832</v>
       </c>
       <c r="I51">
-        <v>1256.76544288753</v>
+        <v>1223.263397620368</v>
       </c>
       <c r="J51">
-        <v>-370.729019137777</v>
+        <v>-373.0172705039071</v>
       </c>
       <c r="K51">
-        <v>-2940.004149775857</v>
+        <v>-2979.426266081006</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.15101688916143</v>
+        <v>39.2232136283951</v>
       </c>
       <c r="G52">
-        <v>580.8001039239543</v>
+        <v>618.0382804815924</v>
       </c>
       <c r="H52">
-        <v>1888.166435023833</v>
+        <v>2040.218001240449</v>
       </c>
       <c r="I52">
-        <v>1331.408722197693</v>
+        <v>1337.186718629785</v>
       </c>
       <c r="J52">
-        <v>-429.3867355782814</v>
+        <v>-443.0732900343823</v>
       </c>
       <c r="K52">
-        <v>-3205.714963231081</v>
+        <v>-3534.267598915452</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.66096643789661</v>
+        <v>35.9893057552857</v>
       </c>
       <c r="G53">
-        <v>651.2665145988387</v>
+        <v>623.5396862453524</v>
       </c>
       <c r="H53">
-        <v>1930.084657926976</v>
+        <v>1954.548365400802</v>
       </c>
       <c r="I53">
-        <v>1484.345259219359</v>
+        <v>1391.93886751317</v>
       </c>
       <c r="J53">
-        <v>-480.4930455296803</v>
+        <v>-486.3909318523832</v>
       </c>
       <c r="K53">
-        <v>-3668.00920313024</v>
+        <v>-3660.720535559521</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.10775098172004</v>
+        <v>38.10824541491956</v>
       </c>
       <c r="G54">
-        <v>654.5791934152976</v>
+        <v>667.6029625608921</v>
       </c>
       <c r="H54">
-        <v>1950.716397987022</v>
+        <v>2034.535613217951</v>
       </c>
       <c r="I54">
-        <v>1484.877499548968</v>
+        <v>1492.184817625295</v>
       </c>
       <c r="J54">
-        <v>-511.0945906864569</v>
+        <v>-508.1868350984602</v>
       </c>
       <c r="K54">
-        <v>-4476.534699887376</v>
+        <v>-4396.955141728885</v>
       </c>
     </row>
   </sheetData>
